--- a/ACO/Report/result.xlsx
+++ b/ACO/Report/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AE4FCB-E483-4096-82A2-434D72246BD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A83253-9A20-4883-86AB-D97F804AAD10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,25 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Performance improvement</t>
-  </si>
-  <si>
-    <t>Elapsed time (sec)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># of Comp nodes </t>
-  </si>
-  <si>
-    <t># of ants</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +43,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,12 +74,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,7 +364,7 @@
   <dimension ref="B3:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -382,79 +376,116 @@
     <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>9.0470000000000006</v>
+      </c>
+      <c r="D3" s="1">
+        <v>709.40782709293103</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>30.396999999999998</v>
       </c>
       <c r="D4">
-        <v>10.038</v>
-      </c>
-      <c r="E4">
-        <f>D4/D4</f>
-        <v>1</v>
+        <v>684.49076212853504</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>26909</v>
       </c>
       <c r="D5">
-        <v>40.792999999999999</v>
-      </c>
-      <c r="E5">
-        <f>D4/D5</f>
-        <v>0.24607162993650872</v>
+        <v>684.49076212853504</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>84700</v>
       </c>
       <c r="D6">
-        <v>33.25</v>
-      </c>
-      <c r="E6">
-        <f>D4/D6</f>
-        <v>0.30189473684210527</v>
+        <v>684.49076212853504</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>97053</v>
+      </c>
+      <c r="D7">
+        <v>665.98343996036999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>600</v>
+      </c>
+      <c r="C8">
+        <v>127428</v>
+      </c>
+      <c r="D8">
+        <v>665.98343996036999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>700</v>
+      </c>
+      <c r="C9">
+        <v>102772</v>
+      </c>
+      <c r="D9">
+        <v>665.98343996036999</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>800</v>
+      </c>
+      <c r="C10">
+        <v>117578</v>
+      </c>
       <c r="D10">
-        <v>598.29178974257604</v>
+        <v>602.92686687579999</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>900</v>
+      </c>
+      <c r="C11">
+        <v>58927</v>
+      </c>
       <c r="D11">
-        <v>44076</v>
+        <v>602.92686687579999</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>66191</v>
+      </c>
+      <c r="D12" s="3">
+        <v>602.92686687579999</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
